--- a/medicine/Psychotrope/Gustav_Bruch/Gustav_Bruch.xlsx
+++ b/medicine/Psychotrope/Gustav_Bruch/Gustav_Bruch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Samuel Daniel Bruch, né le 12 janvier 1822 à Sarrebruck-St. Johann et mort le 7 juillet 1899 dans la même localité, est un propriétaire de brasserie et un homme politique allemand, membre du Parti national-libéral.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruch est originaire d'une vieille famille sarrebruckoise. Il étudie au Gymnasium et à la Realschule à Sarrebruck, puis il devient responsable politique communal et propriétaire de la brasserie Bruch dans la même ville. De 1870 à 1887, il est adjoint de la ville. En 1897, il est fait citoyen d'honneur de Sarrebruck[1]. À Sarrebruck, la Gustav-Bruch-Straße est nommée d'après lui.
-De 1867 à 1869, Bruch est député de la circonscription Trèves 5 (Sarrebruck) au Reichstag de la Confédération de l'Allemagne du Nord. En parallèle, il est aussi membre du Parlement douanier de 1868 à 1860. Bruch est membre du Parti national-libéral[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruch est originaire d'une vieille famille sarrebruckoise. Il étudie au Gymnasium et à la Realschule à Sarrebruck, puis il devient responsable politique communal et propriétaire de la brasserie Bruch dans la même ville. De 1870 à 1887, il est adjoint de la ville. En 1897, il est fait citoyen d'honneur de Sarrebruck. À Sarrebruck, la Gustav-Bruch-Straße est nommée d'après lui.
+De 1867 à 1869, Bruch est député de la circonscription Trèves 5 (Sarrebruck) au Reichstag de la Confédération de l'Allemagne du Nord. En parallèle, il est aussi membre du Parlement douanier de 1868 à 1860. Bruch est membre du Parti national-libéral.
 </t>
         </is>
       </c>
